--- a/templates/data_excel.xlsx
+++ b/templates/data_excel.xlsx
@@ -1,59 +1,227 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - Microsoft 365\工作\联合动力（新）\1. 代码\UI_word\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F31BF9-A115-4147-AB50-C647A495709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="风数据总结" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="风数据总结" sheetId="1" r:id="rId1"/>
+    <sheet name="风速合理性检验" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>cft0号</t>
+  </si>
+  <si>
+    <t>cft1号</t>
+  </si>
+  <si>
+    <t>风数据总结_words</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>1488#</t>
+  </si>
+  <si>
+    <t>1489#</t>
+  </si>
+  <si>
+    <t>气温数据</t>
+  </si>
+  <si>
+    <t>气压数据</t>
+  </si>
+  <si>
+    <t>缺失日期</t>
+  </si>
+  <si>
+    <t>2015-07-29 08:00:00-2015-11-08 11:10:00</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>完整率</t>
+  </si>
+  <si>
+    <t>72.02%</t>
+  </si>
+  <si>
+    <t>98.91%</t>
+  </si>
+  <si>
+    <t>是否计入计算空气密度</t>
+  </si>
+  <si>
+    <t>风数据总结_table</t>
+  </si>
+  <si>
+    <t>海拔</t>
+  </si>
+  <si>
+    <t>装置处的空气密度</t>
+  </si>
+  <si>
+    <t>轮毂高度处的空气密度</t>
+  </si>
+  <si>
+    <t>轮毂高度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风速合理性检验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_table</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>80m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合理数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81m</t>
+  </si>
+  <si>
+    <t>82m</t>
+  </si>
+  <si>
+    <t>83m</t>
+  </si>
+  <si>
+    <t>84m</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,131 +230,79 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="1037312184251088581" xfId="1" hidden="0"/>
-    <cellStyle name="7212047894232725240" xfId="2" hidden="0"/>
-    <cellStyle name="-4103248442662740862" xfId="3" hidden="0"/>
+    <cellStyle name="1037312184251088581" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="-4103248442662740862" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="7212047894232725240" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -474,259 +590,428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView rightToLeft="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="31.2" customWidth="1" min="2" max="2"/>
-    <col width="29.9" customWidth="1" min="3" max="3"/>
-    <col width="67.60000000000001" customWidth="1" min="4" max="4"/>
-    <col width="24.7" customWidth="1" min="5" max="5"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="67.625" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>种类</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cft0号</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>cft1号</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>风数据总结_words</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>编号</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>1488#</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>1489#</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>气温数据</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>气压数据</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>缺失日期</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>2015-07-29 08:00:00-2015-11-08 11:10:00</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>完整率</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>72.02%</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>98.91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>是否计入计算空气密度</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>风数据总结_table</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>编号</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>1488#</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>1489#</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="inlineStr"/>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>海拔</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n">
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3">
         <v>217</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="inlineStr"/>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>装置处的空气密度</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>1.241</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1.213</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.2130000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="inlineStr"/>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>轮毂高度处的空气密度</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
         <v>1.23</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>1.202</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="inlineStr"/>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>轮毂高度</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3" t="n">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808CA3FB-5560-4972-A75A-672BB5CB4445}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+      <c r="H5" s="3">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3">
+        <v>100</v>
+      </c>
+      <c r="J5" s="3">
+        <v>100</v>
+      </c>
+      <c r="K5" s="3">
+        <v>100</v>
+      </c>
+      <c r="L5" s="3">
+        <v>100</v>
+      </c>
+      <c r="M5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/data_excel.xlsx
+++ b/templates/data_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - Microsoft 365\工作\联合动力（新）\1. 代码\UI_word\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F31BF9-A115-4147-AB50-C647A495709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BCA741-31D6-4290-99A2-2E3D190214B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="4740" windowWidth="28800" windowHeight="7560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风数据总结" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>类型</t>
   </si>
@@ -98,17 +98,118 @@
   </si>
   <si>
     <t>轮毂高度</t>
+  </si>
+  <si>
+    <t>80m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81m</t>
+  </si>
+  <si>
+    <t>82m</t>
+  </si>
+  <si>
+    <t>83m</t>
+  </si>
+  <si>
+    <t>84m</t>
+  </si>
+  <si>
+    <t>风速不合理数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速高度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei UI"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>风向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高度</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速发生时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风向发生时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>风速合理性检验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>_table</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合理性检验</t>
     </r>
     <r>
       <rPr>
@@ -121,40 +222,12 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <t>80m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不合理数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>81m</t>
-  </si>
-  <si>
-    <t>82m</t>
-  </si>
-  <si>
-    <t>83m</t>
-  </si>
-  <si>
-    <t>84m</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,15 +269,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -274,7 +354,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -282,7 +362,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -594,7 +674,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -797,10 +877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808CA3FB-5560-4972-A75A-672BB5CB4445}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,163 +931,297 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="3">
-        <v>1.23</v>
+        <v>1.2410000000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.2410000000000001</v>
       </c>
       <c r="G4" s="3">
-        <v>1.23</v>
+        <v>1.2410000000000001</v>
       </c>
       <c r="H4" s="3">
-        <v>1.23</v>
+        <v>1.2410000000000001</v>
       </c>
       <c r="I4" s="3">
-        <v>1.23</v>
+        <v>1.2410000000000001</v>
       </c>
       <c r="J4" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>11</v>
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.2410000000000001</v>
       </c>
       <c r="L4" s="3">
-        <v>1.23</v>
+        <v>1.2410000000000001</v>
       </c>
       <c r="M4" s="3">
-        <v>1.23</v>
+        <v>1.2410000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="3">
-        <v>100</v>
+        <v>1.23</v>
       </c>
       <c r="E5" s="3">
-        <v>100</v>
-      </c>
-      <c r="F5" s="3">
-        <v>100</v>
+        <v>1.23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G5" s="3">
-        <v>100</v>
+        <v>1.23</v>
       </c>
       <c r="H5" s="3">
-        <v>100</v>
+        <v>1.23</v>
       </c>
       <c r="I5" s="3">
-        <v>100</v>
+        <v>1.23</v>
       </c>
       <c r="J5" s="3">
-        <v>100</v>
-      </c>
-      <c r="K5" s="3">
-        <v>100</v>
+        <v>1.23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L5" s="3">
-        <v>100</v>
+        <v>1.23</v>
       </c>
       <c r="M5" s="3">
-        <v>100</v>
-      </c>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/templates/data_excel.xlsx
+++ b/templates/data_excel.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - Microsoft 365\工作\联合动力（新）\1. 代码\UI_word\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Onedrive - Microsoft 365\工作\联合动力（新）\1. 代码\UI_word\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BCA741-31D6-4290-99A2-2E3D190214B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3CB2F-48BE-4ECE-A93D-AFA8C3DF3FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="4740" windowWidth="28800" windowHeight="7560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="5805" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风数据总结" sheetId="1" r:id="rId1"/>
-    <sheet name="风速合理性检验" sheetId="2" r:id="rId2"/>
+    <sheet name="合理性检验" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
   <si>
     <t>类型</t>
   </si>
@@ -219,6 +220,54 @@
         <family val="2"/>
       </rPr>
       <t>_table</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>风速合理性检验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>_table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>风速合理性检验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>_table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_2</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -375,6 +424,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -394,7 +511,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -879,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808CA3FB-5560-4972-A75A-672BB5CB4445}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1226,6 +1343,185 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4792138B-E3A9-4D5E-9AF8-0429945C383C}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/data_excel.xlsx
+++ b/templates/data_excel.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Onedrive - Microsoft 365\工作\联合动力（新）\1. 代码\UI_word\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sunvo-my.sharepoint.cn/personal/zhangyicheng1986_onedrive_club/Documents/工作/联合动力（新）/1. 代码/UI_word/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3CB2F-48BE-4ECE-A93D-AFA8C3DF3FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{57B3CB2F-48BE-4ECE-A93D-AFA8C3DF3FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A411BE5A-7C46-462D-9C20-71D206350FA0}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="5805" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="4230" windowWidth="21600" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风数据总结" sheetId="1" r:id="rId1"/>
-    <sheet name="合理性检验" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="合理性检验" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>类型</t>
   </si>
@@ -108,119 +107,19 @@
     <t>81m</t>
   </si>
   <si>
-    <t>82m</t>
-  </si>
-  <si>
-    <t>83m</t>
-  </si>
-  <si>
-    <t>84m</t>
-  </si>
-  <si>
     <t>风速不合理数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>30m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>风速高度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风向</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高度</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>风速发生时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>风向发生时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>风速合理性检验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>_table</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>向</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合理性检验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_table</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -276,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,13 +204,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -319,13 +211,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -403,15 +288,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -993,366 +878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808CA3FB-5560-4972-A75A-672BB5CB4445}">
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4792138B-E3A9-4D5E-9AF8-0429945C383C}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1387,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -1406,7 +936,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>22</v>
@@ -1422,7 +952,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3">
         <v>1.2410000000000001</v>
@@ -1438,7 +968,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3">
         <v>1.23</v>
@@ -1453,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -1473,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>22</v>
@@ -1490,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3">
         <v>1.2410000000000001</v>
@@ -1507,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3">
         <v>1.23</v>

--- a/templates/data_excel.xlsx
+++ b/templates/data_excel.xlsx
@@ -5,16 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sunvo-my.sharepoint.cn/personal/zhangyicheng1986_onedrive_club/Documents/工作/联合动力（新）/1. 代码/UI_word/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Onedrive - Microsoft 365\工作\联合动力（新）\1. 代码\UI_word\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{57B3CB2F-48BE-4ECE-A93D-AFA8C3DF3FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A411BE5A-7C46-462D-9C20-71D206350FA0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827B471-0DED-4698-8C4F-37E7D02A9900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="4230" windowWidth="21600" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="2880" windowWidth="21600" windowHeight="11370" tabRatio="730" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风数据总结" sheetId="1" r:id="rId1"/>
-    <sheet name="合理性检验" sheetId="3" r:id="rId2"/>
+    <sheet name="风速合理性检验" sheetId="3" r:id="rId2"/>
+    <sheet name="风向合理性检验" sheetId="4" r:id="rId3"/>
+    <sheet name="气压合理性检验" sheetId="5" r:id="rId4"/>
+    <sheet name="相关性检验参考表" sheetId="6" r:id="rId5"/>
+    <sheet name="风速相关性检验" sheetId="7" r:id="rId6"/>
+    <sheet name="风向相关性检验" sheetId="8" r:id="rId7"/>
+    <sheet name="风速趋势检验" sheetId="9" r:id="rId8"/>
+    <sheet name="气温趋势检验" sheetId="10" r:id="rId9"/>
+    <sheet name="气压趋势检验" sheetId="11" r:id="rId10"/>
+    <sheet name="测风塔完整率" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="67">
   <si>
     <t>类型</t>
   </si>
@@ -85,9 +94,6 @@
     <t>是否计入计算空气密度</t>
   </si>
   <si>
-    <t>风数据总结_table</t>
-  </si>
-  <si>
     <t>海拔</t>
   </si>
   <si>
@@ -100,13 +106,6 @@
     <t>轮毂高度</t>
   </si>
   <si>
-    <t>80m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>81m</t>
-  </si>
-  <si>
     <t>风速不合理数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -124,31 +123,7 @@
   </si>
   <si>
     <r>
-      <t>风速合理性检验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>_table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>风速合理性检验</t>
+      <t>风向合理性检验</t>
     </r>
     <r>
       <rPr>
@@ -170,12 +145,236 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>风向高度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风向不合理数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风向发生时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速合理性检验_table_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速合理性检验_table_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cft0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <t>气压合理性检验_table_2</t>
+  </si>
+  <si>
+    <t>气压高度</t>
+  </si>
+  <si>
+    <t>气压不合理数</t>
+  </si>
+  <si>
+    <t>气压发生时间</t>
+  </si>
+  <si>
+    <t>主要参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理相关性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速相关性参考表_table_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速相关性参考表_table_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风向相关性参考表_table_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风向相关性参考表_table_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速趋势检验_table_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速趋势检验_table_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温趋势检验_table_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温趋势检验_table_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温高度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温不合理数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温发生时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气压趋势检验_table_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气压趋势检验_table_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气压高度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气压不合理数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气压发生时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测风塔完整率_table_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测风塔完整率_table_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应测数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风数据总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风数据总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风向合理性检验_table_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气压合理性检验_table_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性检验参考表_table_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性检验参考表_table_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +420,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -235,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -258,6 +472,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -274,7 +499,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -296,8 +521,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -673,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -794,86 +1031,704 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3">
-        <v>217</v>
-      </c>
-      <c r="E9" s="3">
-        <v>250</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.2130000000000001</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1.202</v>
-      </c>
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.2130000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB77E05-8720-40AE-9AAC-694B332FBB7F}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6C4EC2-F490-462C-AD9F-37111855B687}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -881,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4792138B-E3A9-4D5E-9AF8-0429945C383C}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -912,15 +1767,15 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -936,10 +1791,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -952,10 +1807,10 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.2410000000000001</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -968,25 +1823,25 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.23</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -1003,13 +1858,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1020,13 +1875,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.2410000000000001</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1037,17 +1892,1405 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.23</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961390AF-9909-4895-AD89-CFE7CED7B8CB}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB511D91-153A-4F2E-AAB2-CE219F98773C}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF56797A-8730-4BBE-835D-546F5AC77A27}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7A5D4B-D630-4880-80A4-5DDEB7B6EB70}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3231D6-E1EE-464E-98AE-146A286D4F5E}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A6A7A6-8156-42BB-B7B3-AFEA477AED22}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592436ED-D5A0-42AB-9964-B0BA5A81AF52}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/templates/data_excel.xlsx
+++ b/templates/data_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Onedrive - Microsoft 365\工作\联合动力（新）\1. 代码\UI_word\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827B471-0DED-4698-8C4F-37E7D02A9900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6045113-6496-4B69-9BFC-7E5E7A6CFEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="2880" windowWidth="21600" windowHeight="11370" tabRatio="730" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="863" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风数据总结" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="气温趋势检验" sheetId="10" r:id="rId9"/>
     <sheet name="气压趋势检验" sheetId="11" r:id="rId10"/>
     <sheet name="测风塔完整率" sheetId="12" r:id="rId11"/>
+    <sheet name="相关性统计表" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="72">
   <si>
     <t>类型</t>
   </si>
@@ -369,12 +371,29 @@
     <t>相关性检验参考表_table_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>290m</t>
+  </si>
+  <si>
+    <t>250m</t>
+  </si>
+  <si>
+    <t>200m</t>
+  </si>
+  <si>
+    <t>相关性统计表_1_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性统计表_2_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,8 +454,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,8 +473,14 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7BCB85"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -483,6 +514,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -499,7 +567,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -536,6 +604,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1413,7 +1499,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1729,6 +1815,174 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07E2B65-6A48-4C13-8A61-2F5F979965AC}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="13">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="13">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095F9F60-D7BA-44ED-9BBF-171A5C9EBA98}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1916,7 +2170,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2066,7 +2320,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2213,7 +2467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF56797A-8730-4BBE-835D-546F5AC77A27}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/templates/data_excel.xlsx
+++ b/templates/data_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Onedrive - Microsoft 365\工作\联合动力（新）\1. 代码\UI_word\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6045113-6496-4B69-9BFC-7E5E7A6CFEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987348DB-BAED-4A8E-8B8B-5393102A6180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="863" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8940" yWindow="840" windowWidth="21600" windowHeight="11385" tabRatio="919" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风数据总结" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,11 @@
     <sheet name="气压趋势检验" sheetId="11" r:id="rId10"/>
     <sheet name="测风塔完整率" sheetId="12" r:id="rId11"/>
     <sheet name="相关性统计表" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId13"/>
+    <sheet name="平均风速表" sheetId="15" r:id="rId13"/>
+    <sheet name="逐时平均风速表" sheetId="16" r:id="rId14"/>
+    <sheet name="逐月平均风速表" sheetId="17" r:id="rId15"/>
+    <sheet name="风切变指数表" sheetId="18" r:id="rId16"/>
+    <sheet name="湍流强度表" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="111">
   <si>
     <t>类型</t>
   </si>
@@ -388,12 +392,565 @@
     <t>相关性统计表_2_nocols</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>平均风速表_1_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均风速表_2_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场空气密度平均风速（m/s）</t>
+  </si>
+  <si>
+    <t>标况下平均风速（m/s）</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>65m</t>
+  </si>
+  <si>
+    <t>70m</t>
+  </si>
+  <si>
+    <t>80m</t>
+  </si>
+  <si>
+    <t>90m</t>
+  </si>
+  <si>
+    <t>1489#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐时平均风速表_1_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐时平均风速表_2_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐月平均风速表_1_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐月平均风速表_2_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风切变指数表_1_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风切变指数表_2_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100mA</t>
+  </si>
+  <si>
+    <t>100mB</t>
+  </si>
+  <si>
+    <t>80mA</t>
+  </si>
+  <si>
+    <t>80mB</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>1488#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湍流强度表_1_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湍流强度表_2_nocols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表湍流强度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>月平均风速（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>逐时平均风速（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,8 +1017,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,8 +1051,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD8C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -551,6 +1135,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -567,7 +1203,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -622,6 +1258,60 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1822,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07E2B65-6A48-4C13-8A61-2F5F979965AC}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1975,14 +2665,3257 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095F9F60-D7BA-44ED-9BBF-171A5C9EBA98}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="29">
+        <v>4.423</v>
+      </c>
+      <c r="E3" s="30">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="F3" s="30">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G3" s="30">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="H3" s="30">
+        <v>4.8159999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E4" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F4" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G4" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H4" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="29">
+        <v>4.423</v>
+      </c>
+      <c r="E6" s="30">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="F6" s="30">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G6" s="30">
+        <v>4.7039999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E7" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F7" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G7" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8B5883-5752-46E1-91B5-348494800CC4}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D3" s="29">
+        <v>4.423</v>
+      </c>
+      <c r="E3" s="30">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="F3" s="30">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G3" s="30">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="H3" s="30">
+        <v>4.8159999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="33">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D4" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E4" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F4" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G4" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H4" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="D5" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E5" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F5" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G5" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H5" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="33">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D6" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E6" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F6" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G6" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H6" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="33">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D7" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E7" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F7" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G7" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H7" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E8" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F8" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G8" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H8" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="33">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D9" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E9" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F9" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G9" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H9" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="33">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D10" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E10" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F10" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G10" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H10" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E11" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F11" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G11" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H11" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="33">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D12" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E12" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F12" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G12" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H12" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="33">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D13" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E13" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F13" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G13" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H13" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E14" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F14" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G14" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H14" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="33">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D15" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E15" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F15" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G15" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H15" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="33">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D16" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E16" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F16" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G16" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H16" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="D17" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E17" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F17" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G17" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H17" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="33">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D18" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E18" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F18" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G18" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H18" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="33">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D19" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E19" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F19" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G19" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H19" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E20" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F20" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G20" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H20" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="33">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D21" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E21" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F21" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G21" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H21" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="33">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D22" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E22" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F22" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G22" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H22" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="33">
+        <v>0.875</v>
+      </c>
+      <c r="D23" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E23" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F23" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G23" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H23" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="33">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D24" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E24" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F24" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G24" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H24" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="33">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D25" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E25" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F25" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G25" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H25" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="E26" s="32">
+        <v>4.633</v>
+      </c>
+      <c r="F26" s="32">
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="G26" s="32">
+        <v>4.83</v>
+      </c>
+      <c r="H26" s="32">
+        <v>4.9619999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D28" s="29">
+        <v>4.423</v>
+      </c>
+      <c r="E28" s="30">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="F28" s="30">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G28" s="30">
+        <v>4.7039999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="33">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D29" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E29" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F29" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G29" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="D30" s="29">
+        <v>4.2809999999999997</v>
+      </c>
+      <c r="E30" s="30">
+        <v>4.4119999999999999</v>
+      </c>
+      <c r="F30" s="30">
+        <v>4.5039999999999996</v>
+      </c>
+      <c r="G30" s="30">
+        <v>4.6879999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="33">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D31" s="29">
+        <v>4.21</v>
+      </c>
+      <c r="E31" s="30">
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="F31" s="30">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="G31" s="30">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="33">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D32" s="29">
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="E32" s="30">
+        <v>4.28</v>
+      </c>
+      <c r="F32" s="30">
+        <v>4.4119999999999999</v>
+      </c>
+      <c r="G32" s="30">
+        <v>4.6719999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="29">
+        <v>4.0679999999999996</v>
+      </c>
+      <c r="E33" s="30">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="F33" s="30">
+        <v>4.3659999999999997</v>
+      </c>
+      <c r="G33" s="30">
+        <v>4.6639999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="33">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D34" s="29">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="E34" s="30">
+        <v>4.1479999999999997</v>
+      </c>
+      <c r="F34" s="30">
+        <v>4.32</v>
+      </c>
+      <c r="G34" s="30">
+        <v>4.6559999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="33">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D35" s="29">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="E35" s="30">
+        <v>4.0819999999999999</v>
+      </c>
+      <c r="F35" s="30">
+        <v>4.274</v>
+      </c>
+      <c r="G35" s="30">
+        <v>4.6479999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="C36" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="D36" s="29">
+        <v>3.855</v>
+      </c>
+      <c r="E36" s="30">
+        <v>4.016</v>
+      </c>
+      <c r="F36" s="30">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="G36" s="30">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="33">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D37" s="29">
+        <v>3.7839999999999998</v>
+      </c>
+      <c r="E37" s="30">
+        <v>3.95</v>
+      </c>
+      <c r="F37" s="30">
+        <v>4.1820000000000004</v>
+      </c>
+      <c r="G37" s="30">
+        <v>4.6319999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="C38" s="33">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D38" s="29">
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="E38" s="30">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="F38" s="30">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="G38" s="30">
+        <v>4.6239999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="C39" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="29">
+        <v>3.6419999999999999</v>
+      </c>
+      <c r="E39" s="30">
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="F39" s="30">
+        <v>4.09</v>
+      </c>
+      <c r="G39" s="30">
+        <v>4.6159999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="C40" s="33">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D40" s="29">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="E40" s="30">
+        <v>3.7519999999999998</v>
+      </c>
+      <c r="F40" s="30">
+        <v>4.0439999999999996</v>
+      </c>
+      <c r="G40" s="30">
+        <v>4.6079999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="C41" s="33">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D41" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="E41" s="30">
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="F41" s="30">
+        <v>3.9980000000000002</v>
+      </c>
+      <c r="G41" s="30">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="C42" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="D42" s="29">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="E42" s="30">
+        <v>3.62</v>
+      </c>
+      <c r="F42" s="30">
+        <v>3.952</v>
+      </c>
+      <c r="G42" s="30">
+        <v>4.5919999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" s="33">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D43" s="29">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="E43" s="30">
+        <v>3.5539999999999998</v>
+      </c>
+      <c r="F43" s="30">
+        <v>3.9060000000000001</v>
+      </c>
+      <c r="G43" s="30">
+        <v>4.5839999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="C44" s="33">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D44" s="29">
+        <v>3.2869999999999999</v>
+      </c>
+      <c r="E44" s="30">
+        <v>3.488</v>
+      </c>
+      <c r="F44" s="30">
+        <v>3.86</v>
+      </c>
+      <c r="G44" s="30">
+        <v>4.5759999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="C45" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="29">
+        <v>3.2160000000000002</v>
+      </c>
+      <c r="E45" s="30">
+        <v>3.4220000000000002</v>
+      </c>
+      <c r="F45" s="30">
+        <v>3.8140000000000001</v>
+      </c>
+      <c r="G45" s="30">
+        <v>4.5679999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="C46" s="33">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D46" s="29">
+        <v>3.145</v>
+      </c>
+      <c r="E46" s="30">
+        <v>3.3559999999999999</v>
+      </c>
+      <c r="F46" s="30">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="G46" s="30">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="C47" s="33">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D47" s="29">
+        <v>3.0740000000000101</v>
+      </c>
+      <c r="E47" s="30">
+        <v>3.29</v>
+      </c>
+      <c r="F47" s="30">
+        <v>3.722</v>
+      </c>
+      <c r="G47" s="30">
+        <v>4.5519999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="C48" s="33">
+        <v>0.875</v>
+      </c>
+      <c r="D48" s="29">
+        <v>3.0030000000000099</v>
+      </c>
+      <c r="E48" s="30">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="F48" s="30">
+        <v>3.6759999999999899</v>
+      </c>
+      <c r="G48" s="30">
+        <v>4.5439999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="C49" s="33">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D49" s="29">
+        <v>2.9320000000000102</v>
+      </c>
+      <c r="E49" s="30">
+        <v>3.1579999999999999</v>
+      </c>
+      <c r="F49" s="30">
+        <v>3.6299999999999901</v>
+      </c>
+      <c r="G49" s="30">
+        <v>4.5359999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="C50" s="33">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D50" s="29">
+        <v>2.86100000000001</v>
+      </c>
+      <c r="E50" s="30">
+        <v>3.0920000000000001</v>
+      </c>
+      <c r="F50" s="30">
+        <v>3.5839999999999899</v>
+      </c>
+      <c r="G50" s="30">
+        <v>4.5279999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="29">
+        <v>2.7900000000000098</v>
+      </c>
+      <c r="E51" s="30">
+        <v>3.0259999999999998</v>
+      </c>
+      <c r="F51" s="30">
+        <v>3.53799999999999</v>
+      </c>
+      <c r="G51" s="30">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508A282A-4708-4CB2-A5C6-91738F08AEF6}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="29">
+        <v>4.423</v>
+      </c>
+      <c r="E3" s="30">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="F3" s="30">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G3" s="30">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="H3" s="30">
+        <v>4.8159999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E4" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F4" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G4" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H4" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E5" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F5" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G5" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H5" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E6" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F6" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G6" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H6" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E7" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F7" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G7" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H7" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E8" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F8" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G8" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H8" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E9" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F9" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G9" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H9" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E10" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F10" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G10" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H10" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E11" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F11" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G11" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H11" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E12" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F12" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G12" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H12" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E13" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F13" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G13" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H13" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E14" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F14" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G14" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H14" s="30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="E15" s="32">
+        <v>4.633</v>
+      </c>
+      <c r="F15" s="32">
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="G15" s="32">
+        <v>4.83</v>
+      </c>
+      <c r="H15" s="32">
+        <v>4.9619999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="29">
+        <v>4.423</v>
+      </c>
+      <c r="E17" s="30">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="F17" s="30">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G17" s="30">
+        <v>4.7039999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="29">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E18" s="30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F18" s="30">
+        <v>4.55</v>
+      </c>
+      <c r="G18" s="30">
+        <v>4.6959999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="29">
+        <v>4.2809999999999997</v>
+      </c>
+      <c r="E19" s="30">
+        <v>4.4119999999999999</v>
+      </c>
+      <c r="F19" s="30">
+        <v>4.5039999999999996</v>
+      </c>
+      <c r="G19" s="30">
+        <v>4.6879999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="29">
+        <v>4.21</v>
+      </c>
+      <c r="E20" s="30">
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="F20" s="30">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="G20" s="30">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="29">
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="E21" s="30">
+        <v>4.28</v>
+      </c>
+      <c r="F21" s="30">
+        <v>4.4119999999999999</v>
+      </c>
+      <c r="G21" s="30">
+        <v>4.6719999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="29">
+        <v>4.0679999999999996</v>
+      </c>
+      <c r="E22" s="30">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="F22" s="30">
+        <v>4.3659999999999997</v>
+      </c>
+      <c r="G22" s="30">
+        <v>4.6639999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="29">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="E23" s="30">
+        <v>4.1479999999999997</v>
+      </c>
+      <c r="F23" s="30">
+        <v>4.32</v>
+      </c>
+      <c r="G23" s="30">
+        <v>4.6559999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="29">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="E24" s="30">
+        <v>4.0819999999999999</v>
+      </c>
+      <c r="F24" s="30">
+        <v>4.274</v>
+      </c>
+      <c r="G24" s="30">
+        <v>4.6479999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="29">
+        <v>3.855</v>
+      </c>
+      <c r="E25" s="30">
+        <v>4.016</v>
+      </c>
+      <c r="F25" s="30">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="G25" s="30">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="29">
+        <v>3.7839999999999998</v>
+      </c>
+      <c r="E26" s="30">
+        <v>3.95</v>
+      </c>
+      <c r="F26" s="30">
+        <v>4.1820000000000004</v>
+      </c>
+      <c r="G26" s="30">
+        <v>4.6319999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="29">
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="E27" s="30">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="F27" s="30">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="G27" s="30">
+        <v>4.6239999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="29">
+        <v>3.6419999999999999</v>
+      </c>
+      <c r="E28" s="30">
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="F28" s="30">
+        <v>4.09</v>
+      </c>
+      <c r="G28" s="30">
+        <v>4.6159999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="29">
+        <v>2.7900000000000098</v>
+      </c>
+      <c r="E29" s="30">
+        <v>3.0259999999999998</v>
+      </c>
+      <c r="F29" s="30">
+        <v>3.53799999999999</v>
+      </c>
+      <c r="G29" s="30">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08586E7E-EE67-49E1-9E9F-8F3E4F03BC07}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27">
+        <v>0.247</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0.252</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27">
+        <v>0.247</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.252</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A9B019-BEF3-404C-BDA7-A7D1592E88A6}">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>4.423</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="F3" s="21">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G3" s="21">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="H3" s="21">
+        <v>4.8159999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="17">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E4" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G4" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H4" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F5" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G5" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H5" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="17">
+        <v>4</v>
+      </c>
+      <c r="D6" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E6" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F6" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G6" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H6" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="16">
+        <v>5</v>
+      </c>
+      <c r="D7" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E7" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F7" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G7" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H7" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="17">
+        <v>6</v>
+      </c>
+      <c r="D8" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E8" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F8" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G8" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H8" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="16">
+        <v>7</v>
+      </c>
+      <c r="D9" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E9" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F9" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G9" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H9" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="17">
+        <v>8</v>
+      </c>
+      <c r="D10" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E10" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F10" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G10" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H10" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="16">
+        <v>9</v>
+      </c>
+      <c r="D11" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E11" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F11" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G11" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H11" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="17">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E12" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F12" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G12" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H12" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="16">
+        <v>11</v>
+      </c>
+      <c r="D13" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E13" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F13" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G13" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H13" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="17">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E14" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F14" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G14" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H14" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="16">
+        <v>13</v>
+      </c>
+      <c r="D15" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E15" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F15" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G15" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H15" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="16">
+        <v>14</v>
+      </c>
+      <c r="D16" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E16" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F16" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G16" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H16" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="17">
+        <v>15</v>
+      </c>
+      <c r="D17" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F17" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G17" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H17" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="16">
+        <v>16</v>
+      </c>
+      <c r="D18" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E18" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F18" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G18" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H18" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="17">
+        <v>17</v>
+      </c>
+      <c r="D19" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E19" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F19" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G19" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H19" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="16">
+        <v>18</v>
+      </c>
+      <c r="D20" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E20" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F20" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G20" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H20" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="16">
+        <v>19</v>
+      </c>
+      <c r="D21" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E21" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F21" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G21" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H21" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="17">
+        <v>20</v>
+      </c>
+      <c r="D22" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E22" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F22" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G22" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H22" s="21">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="E23" s="23">
+        <v>4.633</v>
+      </c>
+      <c r="F23" s="23">
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="G23" s="23">
+        <v>4.83</v>
+      </c>
+      <c r="H23" s="23">
+        <v>4.9619999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="16">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20">
+        <v>4.423</v>
+      </c>
+      <c r="E25" s="21">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="F25" s="21">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G25" s="21">
+        <v>4.7039999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="17">
+        <v>2</v>
+      </c>
+      <c r="D26" s="20">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E26" s="21">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F26" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="G26" s="21">
+        <v>4.6959999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="16">
+        <v>3</v>
+      </c>
+      <c r="D27" s="20">
+        <v>4.2809999999999997</v>
+      </c>
+      <c r="E27" s="21">
+        <v>4.4119999999999999</v>
+      </c>
+      <c r="F27" s="21">
+        <v>4.5039999999999996</v>
+      </c>
+      <c r="G27" s="21">
+        <v>4.6879999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="17">
+        <v>4</v>
+      </c>
+      <c r="D28" s="20">
+        <v>4.21</v>
+      </c>
+      <c r="E28" s="21">
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="F28" s="21">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="G28" s="21">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="16">
+        <v>5</v>
+      </c>
+      <c r="D29" s="20">
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="E29" s="21">
+        <v>4.28</v>
+      </c>
+      <c r="F29" s="21">
+        <v>4.4119999999999999</v>
+      </c>
+      <c r="G29" s="21">
+        <v>4.6719999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="17">
+        <v>6</v>
+      </c>
+      <c r="D30" s="20">
+        <v>4.0679999999999996</v>
+      </c>
+      <c r="E30" s="21">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="F30" s="21">
+        <v>4.3659999999999997</v>
+      </c>
+      <c r="G30" s="21">
+        <v>4.6639999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="16">
+        <v>7</v>
+      </c>
+      <c r="D31" s="20">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="E31" s="21">
+        <v>4.1479999999999997</v>
+      </c>
+      <c r="F31" s="21">
+        <v>4.32</v>
+      </c>
+      <c r="G31" s="21">
+        <v>4.6559999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="17">
+        <v>8</v>
+      </c>
+      <c r="D32" s="20">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="E32" s="21">
+        <v>4.0819999999999999</v>
+      </c>
+      <c r="F32" s="21">
+        <v>4.274</v>
+      </c>
+      <c r="G32" s="21">
+        <v>4.6479999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" s="16">
+        <v>9</v>
+      </c>
+      <c r="D33" s="20">
+        <v>3.855</v>
+      </c>
+      <c r="E33" s="21">
+        <v>4.016</v>
+      </c>
+      <c r="F33" s="21">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="G33" s="21">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="17">
+        <v>10</v>
+      </c>
+      <c r="D34" s="20">
+        <v>3.7839999999999998</v>
+      </c>
+      <c r="E34" s="21">
+        <v>3.95</v>
+      </c>
+      <c r="F34" s="21">
+        <v>4.1820000000000004</v>
+      </c>
+      <c r="G34" s="21">
+        <v>4.6319999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="16">
+        <v>11</v>
+      </c>
+      <c r="D35" s="20">
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="E35" s="21">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="F35" s="21">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="G35" s="21">
+        <v>4.6239999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="C36" s="17">
+        <v>12</v>
+      </c>
+      <c r="D36" s="20">
+        <v>3.6419999999999999</v>
+      </c>
+      <c r="E36" s="21">
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="F36" s="21">
+        <v>4.09</v>
+      </c>
+      <c r="G36" s="21">
+        <v>4.6159999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="16">
+        <v>13</v>
+      </c>
+      <c r="D37" s="20">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="E37" s="21">
+        <v>3.7519999999999998</v>
+      </c>
+      <c r="F37" s="21">
+        <v>4.0439999999999996</v>
+      </c>
+      <c r="G37" s="21">
+        <v>4.6079999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="C38" s="16">
+        <v>14</v>
+      </c>
+      <c r="D38" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="E38" s="21">
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="F38" s="21">
+        <v>3.9980000000000002</v>
+      </c>
+      <c r="G38" s="21">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="C39" s="17">
+        <v>15</v>
+      </c>
+      <c r="D39" s="20">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="E39" s="21">
+        <v>3.62</v>
+      </c>
+      <c r="F39" s="21">
+        <v>3.952</v>
+      </c>
+      <c r="G39" s="21">
+        <v>4.5919999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="C40" s="16">
+        <v>16</v>
+      </c>
+      <c r="D40" s="20">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="E40" s="21">
+        <v>3.5539999999999998</v>
+      </c>
+      <c r="F40" s="21">
+        <v>3.9060000000000001</v>
+      </c>
+      <c r="G40" s="21">
+        <v>4.5839999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="C41" s="17">
+        <v>17</v>
+      </c>
+      <c r="D41" s="20">
+        <v>3.2869999999999999</v>
+      </c>
+      <c r="E41" s="21">
+        <v>3.488</v>
+      </c>
+      <c r="F41" s="21">
+        <v>3.86</v>
+      </c>
+      <c r="G41" s="21">
+        <v>4.5759999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="C42" s="16">
+        <v>18</v>
+      </c>
+      <c r="D42" s="20">
+        <v>3.2160000000000002</v>
+      </c>
+      <c r="E42" s="21">
+        <v>3.4220000000000002</v>
+      </c>
+      <c r="F42" s="21">
+        <v>3.8140000000000001</v>
+      </c>
+      <c r="G42" s="21">
+        <v>4.5679999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" s="16">
+        <v>19</v>
+      </c>
+      <c r="D43" s="20">
+        <v>3.145</v>
+      </c>
+      <c r="E43" s="21">
+        <v>3.3559999999999999</v>
+      </c>
+      <c r="F43" s="21">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="G43" s="21">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="C44" s="17">
+        <v>20</v>
+      </c>
+      <c r="D44" s="20">
+        <v>3.0740000000000101</v>
+      </c>
+      <c r="E44" s="21">
+        <v>3.29</v>
+      </c>
+      <c r="F44" s="21">
+        <v>3.722</v>
+      </c>
+      <c r="G44" s="21">
+        <v>4.5519999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="20">
+        <v>3.0030000000000099</v>
+      </c>
+      <c r="E45" s="21">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="F45" s="21">
+        <v>3.6759999999999899</v>
+      </c>
+      <c r="G45" s="21">
+        <v>4.5439999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/templates/data_excel.xlsx
+++ b/templates/data_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Onedrive - Microsoft 365\工作\联合动力（新）\1. 代码\UI_word\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987348DB-BAED-4A8E-8B8B-5393102A6180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570EBB28-CD19-4885-83B4-903A504C6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="840" windowWidth="21600" windowHeight="11385" tabRatio="919" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="7620" windowWidth="21600" windowHeight="11385" tabRatio="919" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风数据总结" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="109">
   <si>
     <t>类型</t>
   </si>
@@ -269,14 +269,6 @@
   </si>
   <si>
     <t>气压发生时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测风塔完整率_table_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测风塔完整率_table_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -462,9 +454,6 @@
     <t>80mB</t>
   </si>
   <si>
-    <t>30m</t>
-  </si>
-  <si>
     <t>1488#</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -477,8 +466,163 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>代表湍流强度</t>
+    <t>测风塔完整率_1_tables</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测风塔完整率_2_tables</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81m</t>
+  </si>
+  <si>
+    <t>81mB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
   </si>
   <si>
     <r>
@@ -493,351 +637,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>月（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
+      <t>月</t>
     </r>
   </si>
   <si>
@@ -853,27 +653,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>月（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
+      <t>月</t>
     </r>
   </si>
   <si>
@@ -889,58 +669,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>月（</t>
+      <t>月</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>月平均风速（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>逐时平均风速（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m/s)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1203,7 +933,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1277,12 +1007,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1295,19 +1019,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,7 +1539,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -1891,7 +1606,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -2189,7 +1904,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2217,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -2247,7 +1962,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5">
         <v>10</v>
@@ -2274,7 +1989,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
@@ -2301,7 +2016,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
@@ -2328,7 +2043,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3">
         <v>10</v>
@@ -2355,7 +2070,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
@@ -2381,7 +2096,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>5</v>
@@ -2405,7 +2120,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
@@ -2426,7 +2141,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3">
         <v>10</v>
@@ -2446,7 +2161,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
@@ -2466,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
@@ -2486,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
@@ -2513,7 +2228,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2537,19 +2252,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -2558,7 +2273,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="13">
@@ -2574,7 +2289,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="12"/>
@@ -2586,7 +2301,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
@@ -2597,19 +2312,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -2618,7 +2333,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="13">
@@ -2634,7 +2349,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="12"/>
@@ -2648,7 +2363,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="12"/>
@@ -2668,7 +2383,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2677,7 +2392,7 @@
     <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -2696,25 +2411,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -2723,21 +2438,21 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="29">
+        <v>72</v>
+      </c>
+      <c r="D3" s="26">
         <v>4.423</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="27">
         <v>4.5439999999999996</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="27">
         <v>4.5960000000000001</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="27">
         <v>4.7039999999999997</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="27">
         <v>4.8159999999999998</v>
       </c>
     </row>
@@ -2747,21 +2462,21 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="29">
+        <v>73</v>
+      </c>
+      <c r="D4" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>4.55</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -2770,22 +2485,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>79</v>
+      <c r="H5" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -2794,19 +2512,22 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="29">
+        <v>72</v>
+      </c>
+      <c r="D6" s="26">
         <v>4.423</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <v>4.5439999999999996</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <v>4.5960000000000001</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>4.7039999999999997</v>
+      </c>
+      <c r="H6" s="27">
+        <v>4.5439999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -2815,19 +2536,22 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="29">
+        <v>73</v>
+      </c>
+      <c r="D7" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <v>4.55</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <v>4.6959999999999997</v>
+      </c>
+      <c r="H7" s="27">
+        <v>4.4779999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2839,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8B5883-5752-46E1-91B5-348494800CC4}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I16" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2850,7 +2574,7 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -2869,25 +2593,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -2895,22 +2619,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="33">
+      <c r="C3" s="28">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="26">
         <v>4.423</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="27">
         <v>4.5439999999999996</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="27">
         <v>4.5960000000000001</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="27">
         <v>4.7039999999999997</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="27">
         <v>4.8159999999999998</v>
       </c>
     </row>
@@ -2919,22 +2643,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="33">
+      <c r="C4" s="28">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>4.55</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -2943,22 +2667,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="33">
+      <c r="C5" s="28">
         <v>0.125</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="27">
         <v>4.55</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -2967,22 +2691,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="33">
+      <c r="C6" s="28">
         <v>0.16666666666666699</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <v>4.55</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -2991,22 +2715,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="33">
+      <c r="C7" s="28">
         <v>0.20833333333333301</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <v>4.55</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3015,22 +2739,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="33">
+      <c r="C8" s="28">
         <v>0.25</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <v>4.55</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3039,22 +2763,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="33">
+      <c r="C9" s="28">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="27">
         <v>4.55</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3063,22 +2787,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="33">
+      <c r="C10" s="28">
         <v>0.33333333333333298</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="27">
         <v>4.55</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3087,22 +2811,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="33">
+      <c r="C11" s="28">
         <v>0.375</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="27">
         <v>4.55</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3111,22 +2835,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="33">
+      <c r="C12" s="28">
         <v>0.41666666666666702</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="27">
         <v>4.55</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3135,22 +2859,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="33">
+      <c r="C13" s="28">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="27">
         <v>4.55</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3159,22 +2883,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="33">
+      <c r="C14" s="28">
         <v>0.5</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="27">
         <v>4.55</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3183,22 +2907,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="33">
+      <c r="C15" s="28">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="27">
         <v>4.55</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3207,22 +2931,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="33">
+      <c r="C16" s="28">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="27">
         <v>4.55</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3231,22 +2955,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="33">
+      <c r="C17" s="28">
         <v>0.625</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="27">
         <v>4.55</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3255,22 +2979,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="33">
+      <c r="C18" s="28">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="27">
         <v>4.55</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3279,22 +3003,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="33">
+      <c r="C19" s="28">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="27">
         <v>4.55</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3303,22 +3027,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="33">
+      <c r="C20" s="28">
         <v>0.75</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="27">
         <v>4.55</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3327,22 +3051,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="33">
+      <c r="C21" s="28">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="27">
         <v>4.55</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3351,22 +3075,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="33">
+      <c r="C22" s="28">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="27">
         <v>4.55</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3375,22 +3099,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="33">
+      <c r="C23" s="28">
         <v>0.875</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="27">
         <v>4.55</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3399,22 +3123,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="33">
+      <c r="C24" s="28">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="27">
         <v>4.55</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -3423,552 +3147,580 @@
         <v>23</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="33">
+      <c r="C25" s="28">
         <v>0.95833333333333304</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="27">
         <v>4.55</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="31">
-        <v>4.5</v>
-      </c>
-      <c r="E26" s="32">
-        <v>4.633</v>
-      </c>
-      <c r="F26" s="32">
-        <v>4.6970000000000001</v>
-      </c>
-      <c r="G26" s="32">
-        <v>4.83</v>
-      </c>
-      <c r="H26" s="32">
-        <v>4.9619999999999997</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D27" s="26">
+        <v>4.423</v>
+      </c>
+      <c r="E27" s="27">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="F27" s="27">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G27" s="27">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="H27" s="27">
+        <v>4.5439999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D28" s="29">
-        <v>4.423</v>
-      </c>
-      <c r="E28" s="30">
-        <v>4.5439999999999996</v>
-      </c>
-      <c r="F28" s="30">
-        <v>4.5960000000000001</v>
-      </c>
-      <c r="G28" s="30">
-        <v>4.7039999999999997</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="28">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D28" s="26">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E28" s="27">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F28" s="27">
+        <v>4.55</v>
+      </c>
+      <c r="G28" s="27">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H28" s="27">
+        <v>4.4779999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="33">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="D29" s="29">
-        <v>4.3520000000000003</v>
-      </c>
-      <c r="E29" s="30">
-        <v>4.4779999999999998</v>
-      </c>
-      <c r="F29" s="30">
-        <v>4.55</v>
-      </c>
-      <c r="G29" s="30">
-        <v>4.6959999999999997</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="28">
+        <v>0.125</v>
+      </c>
+      <c r="D29" s="26">
+        <v>4.2809999999999997</v>
+      </c>
+      <c r="E29" s="27">
+        <v>4.4119999999999999</v>
+      </c>
+      <c r="F29" s="27">
+        <v>4.5039999999999996</v>
+      </c>
+      <c r="G29" s="27">
+        <v>4.6879999999999997</v>
+      </c>
+      <c r="H29" s="27">
+        <v>4.4119999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="C30" s="33">
-        <v>0.125</v>
-      </c>
-      <c r="D30" s="29">
-        <v>4.2809999999999997</v>
-      </c>
-      <c r="E30" s="30">
-        <v>4.4119999999999999</v>
-      </c>
-      <c r="F30" s="30">
-        <v>4.5039999999999996</v>
-      </c>
-      <c r="G30" s="30">
-        <v>4.6879999999999997</v>
+        <v>29</v>
+      </c>
+      <c r="C30" s="28">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D30" s="26">
+        <v>4.21</v>
+      </c>
+      <c r="E30" s="27">
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="F30" s="27">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="G30" s="27">
+        <v>4.68</v>
+      </c>
+      <c r="H30" s="27">
+        <v>4.3460000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="C31" s="33">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="D31" s="29">
-        <v>4.21</v>
-      </c>
-      <c r="E31" s="30">
-        <v>4.3460000000000001</v>
-      </c>
-      <c r="F31" s="30">
-        <v>4.4580000000000002</v>
-      </c>
-      <c r="G31" s="30">
-        <v>4.68</v>
+        <v>30</v>
+      </c>
+      <c r="C31" s="28">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D31" s="26">
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="E31" s="27">
+        <v>4.28</v>
+      </c>
+      <c r="F31" s="27">
+        <v>4.4119999999999999</v>
+      </c>
+      <c r="G31" s="27">
+        <v>4.6719999999999997</v>
+      </c>
+      <c r="H31" s="27">
+        <v>4.28</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="C32" s="33">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="D32" s="29">
-        <v>4.1390000000000002</v>
-      </c>
-      <c r="E32" s="30">
-        <v>4.28</v>
-      </c>
-      <c r="F32" s="30">
-        <v>4.4119999999999999</v>
-      </c>
-      <c r="G32" s="30">
-        <v>4.6719999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="26">
+        <v>4.0679999999999996</v>
+      </c>
+      <c r="E32" s="27">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="F32" s="27">
+        <v>4.3659999999999997</v>
+      </c>
+      <c r="G32" s="27">
+        <v>4.6639999999999997</v>
+      </c>
+      <c r="H32" s="27">
+        <v>4.2140000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="C33" s="33">
-        <v>0.25</v>
-      </c>
-      <c r="D33" s="29">
-        <v>4.0679999999999996</v>
-      </c>
-      <c r="E33" s="30">
-        <v>4.2140000000000004</v>
-      </c>
-      <c r="F33" s="30">
-        <v>4.3659999999999997</v>
-      </c>
-      <c r="G33" s="30">
-        <v>4.6639999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="28">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D33" s="26">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="E33" s="27">
+        <v>4.1479999999999997</v>
+      </c>
+      <c r="F33" s="27">
+        <v>4.32</v>
+      </c>
+      <c r="G33" s="27">
+        <v>4.6559999999999997</v>
+      </c>
+      <c r="H33" s="27">
+        <v>4.1479999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="C34" s="33">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="D34" s="29">
-        <v>3.9969999999999999</v>
-      </c>
-      <c r="E34" s="30">
-        <v>4.1479999999999997</v>
-      </c>
-      <c r="F34" s="30">
-        <v>4.32</v>
-      </c>
-      <c r="G34" s="30">
-        <v>4.6559999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="28">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D34" s="26">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="E34" s="27">
+        <v>4.0819999999999999</v>
+      </c>
+      <c r="F34" s="27">
+        <v>4.274</v>
+      </c>
+      <c r="G34" s="27">
+        <v>4.6479999999999997</v>
+      </c>
+      <c r="H34" s="27">
+        <v>4.0819999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="C35" s="33">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="D35" s="29">
-        <v>3.9260000000000002</v>
-      </c>
-      <c r="E35" s="30">
-        <v>4.0819999999999999</v>
-      </c>
-      <c r="F35" s="30">
-        <v>4.274</v>
-      </c>
-      <c r="G35" s="30">
-        <v>4.6479999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="D35" s="26">
+        <v>3.855</v>
+      </c>
+      <c r="E35" s="27">
+        <v>4.016</v>
+      </c>
+      <c r="F35" s="27">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="G35" s="27">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="H35" s="27">
+        <v>4.016</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="C36" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="D36" s="29">
-        <v>3.855</v>
-      </c>
-      <c r="E36" s="30">
-        <v>4.016</v>
-      </c>
-      <c r="F36" s="30">
-        <v>4.2279999999999998</v>
-      </c>
-      <c r="G36" s="30">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="28">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D36" s="26">
+        <v>3.7839999999999998</v>
+      </c>
+      <c r="E36" s="27">
+        <v>3.95</v>
+      </c>
+      <c r="F36" s="27">
+        <v>4.1820000000000004</v>
+      </c>
+      <c r="G36" s="27">
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="H36" s="27">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="C37" s="33">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="D37" s="29">
-        <v>3.7839999999999998</v>
-      </c>
-      <c r="E37" s="30">
-        <v>3.95</v>
-      </c>
-      <c r="F37" s="30">
-        <v>4.1820000000000004</v>
-      </c>
-      <c r="G37" s="30">
-        <v>4.6319999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="28">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D37" s="26">
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="E37" s="27">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="F37" s="27">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="G37" s="27">
+        <v>4.6239999999999997</v>
+      </c>
+      <c r="H37" s="27">
+        <v>3.8839999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="C38" s="33">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="D38" s="29">
-        <v>3.7130000000000001</v>
-      </c>
-      <c r="E38" s="30">
-        <v>3.8839999999999999</v>
-      </c>
-      <c r="F38" s="30">
-        <v>4.1360000000000001</v>
-      </c>
-      <c r="G38" s="30">
-        <v>4.6239999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="26">
+        <v>3.6419999999999999</v>
+      </c>
+      <c r="E38" s="27">
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="F38" s="27">
+        <v>4.09</v>
+      </c>
+      <c r="G38" s="27">
+        <v>4.6159999999999997</v>
+      </c>
+      <c r="H38" s="27">
+        <v>3.8180000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="C39" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="29">
-        <v>3.6419999999999999</v>
-      </c>
-      <c r="E39" s="30">
-        <v>3.8180000000000001</v>
-      </c>
-      <c r="F39" s="30">
-        <v>4.09</v>
-      </c>
-      <c r="G39" s="30">
-        <v>4.6159999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="28">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D39" s="26">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="E39" s="27">
+        <v>3.7519999999999998</v>
+      </c>
+      <c r="F39" s="27">
+        <v>4.0439999999999996</v>
+      </c>
+      <c r="G39" s="27">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="H39" s="27">
+        <v>3.7519999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="C40" s="33">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="D40" s="29">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="E40" s="30">
-        <v>3.7519999999999998</v>
-      </c>
-      <c r="F40" s="30">
-        <v>4.0439999999999996</v>
-      </c>
-      <c r="G40" s="30">
-        <v>4.6079999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="28">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D40" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="E40" s="27">
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="F40" s="27">
+        <v>3.9980000000000002</v>
+      </c>
+      <c r="G40" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H40" s="27">
+        <v>3.6859999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="C41" s="33">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="D41" s="29">
-        <v>3.5</v>
-      </c>
-      <c r="E41" s="30">
-        <v>3.6859999999999999</v>
-      </c>
-      <c r="F41" s="30">
-        <v>3.9980000000000002</v>
-      </c>
-      <c r="G41" s="30">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="D41" s="26">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="E41" s="27">
+        <v>3.62</v>
+      </c>
+      <c r="F41" s="27">
+        <v>3.952</v>
+      </c>
+      <c r="G41" s="27">
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="H41" s="27">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="C42" s="33">
-        <v>0.625</v>
-      </c>
-      <c r="D42" s="29">
-        <v>3.4289999999999998</v>
-      </c>
-      <c r="E42" s="30">
-        <v>3.62</v>
-      </c>
-      <c r="F42" s="30">
-        <v>3.952</v>
-      </c>
-      <c r="G42" s="30">
-        <v>4.5919999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="C42" s="28">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D42" s="26">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="E42" s="27">
+        <v>3.5539999999999998</v>
+      </c>
+      <c r="F42" s="27">
+        <v>3.9060000000000001</v>
+      </c>
+      <c r="G42" s="27">
+        <v>4.5839999999999996</v>
+      </c>
+      <c r="H42" s="27">
+        <v>3.5539999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="C43" s="33">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="D43" s="29">
-        <v>3.3580000000000001</v>
-      </c>
-      <c r="E43" s="30">
-        <v>3.5539999999999998</v>
-      </c>
-      <c r="F43" s="30">
-        <v>3.9060000000000001</v>
-      </c>
-      <c r="G43" s="30">
-        <v>4.5839999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="C43" s="28">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D43" s="26">
+        <v>3.2869999999999999</v>
+      </c>
+      <c r="E43" s="27">
+        <v>3.488</v>
+      </c>
+      <c r="F43" s="27">
+        <v>3.86</v>
+      </c>
+      <c r="G43" s="27">
+        <v>4.5759999999999996</v>
+      </c>
+      <c r="H43" s="27">
+        <v>3.488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="C44" s="33">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="D44" s="29">
-        <v>3.2869999999999999</v>
-      </c>
-      <c r="E44" s="30">
-        <v>3.488</v>
-      </c>
-      <c r="F44" s="30">
-        <v>3.86</v>
-      </c>
-      <c r="G44" s="30">
-        <v>4.5759999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="C44" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="26">
+        <v>3.2160000000000002</v>
+      </c>
+      <c r="E44" s="27">
+        <v>3.4220000000000002</v>
+      </c>
+      <c r="F44" s="27">
+        <v>3.8140000000000001</v>
+      </c>
+      <c r="G44" s="27">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="H44" s="27">
+        <v>3.4220000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="C45" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="D45" s="29">
-        <v>3.2160000000000002</v>
-      </c>
-      <c r="E45" s="30">
-        <v>3.4220000000000002</v>
-      </c>
-      <c r="F45" s="30">
-        <v>3.8140000000000001</v>
-      </c>
-      <c r="G45" s="30">
-        <v>4.5679999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="C45" s="28">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D45" s="26">
+        <v>3.145</v>
+      </c>
+      <c r="E45" s="27">
+        <v>3.3559999999999999</v>
+      </c>
+      <c r="F45" s="27">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="G45" s="27">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H45" s="27">
+        <v>3.3559999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="C46" s="33">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="D46" s="29">
-        <v>3.145</v>
-      </c>
-      <c r="E46" s="30">
-        <v>3.3559999999999999</v>
-      </c>
-      <c r="F46" s="30">
-        <v>3.7679999999999998</v>
-      </c>
-      <c r="G46" s="30">
-        <v>4.5599999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="C46" s="28">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D46" s="26">
+        <v>3.0740000000000101</v>
+      </c>
+      <c r="E46" s="27">
+        <v>3.29</v>
+      </c>
+      <c r="F46" s="27">
+        <v>3.722</v>
+      </c>
+      <c r="G46" s="27">
+        <v>4.5519999999999996</v>
+      </c>
+      <c r="H46" s="27">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="C47" s="33">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="D47" s="29">
-        <v>3.0740000000000101</v>
-      </c>
-      <c r="E47" s="30">
-        <v>3.29</v>
-      </c>
-      <c r="F47" s="30">
-        <v>3.722</v>
-      </c>
-      <c r="G47" s="30">
-        <v>4.5519999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C47" s="28">
+        <v>0.875</v>
+      </c>
+      <c r="D47" s="26">
+        <v>3.0030000000000099</v>
+      </c>
+      <c r="E47" s="27">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="F47" s="27">
+        <v>3.6759999999999899</v>
+      </c>
+      <c r="G47" s="27">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="H47" s="27">
+        <v>3.2240000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>46</v>
-      </c>
-      <c r="C48" s="33">
-        <v>0.875</v>
-      </c>
-      <c r="D48" s="29">
-        <v>3.0030000000000099</v>
-      </c>
-      <c r="E48" s="30">
-        <v>3.2240000000000002</v>
-      </c>
-      <c r="F48" s="30">
-        <v>3.6759999999999899</v>
-      </c>
-      <c r="G48" s="30">
-        <v>4.5439999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="C48" s="28">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D48" s="26">
+        <v>2.9320000000000102</v>
+      </c>
+      <c r="E48" s="27">
+        <v>3.1579999999999999</v>
+      </c>
+      <c r="F48" s="27">
+        <v>3.6299999999999901</v>
+      </c>
+      <c r="G48" s="27">
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="H48" s="27">
+        <v>3.1579999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>47</v>
-      </c>
-      <c r="C49" s="33">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="D49" s="29">
-        <v>2.9320000000000102</v>
-      </c>
-      <c r="E49" s="30">
-        <v>3.1579999999999999</v>
-      </c>
-      <c r="F49" s="30">
-        <v>3.6299999999999901</v>
-      </c>
-      <c r="G49" s="30">
-        <v>4.5359999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C49" s="28">
         <v>0.95833333333333304</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D49" s="26">
         <v>2.86100000000001</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E49" s="27">
         <v>3.0920000000000001</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F49" s="27">
         <v>3.5839999999999899</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G49" s="27">
         <v>4.5279999999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>49</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="29">
-        <v>2.7900000000000098</v>
-      </c>
-      <c r="E51" s="30">
-        <v>3.0259999999999998</v>
-      </c>
-      <c r="F51" s="30">
-        <v>3.53799999999999</v>
-      </c>
-      <c r="G51" s="30">
-        <v>4.5199999999999996</v>
+      <c r="H49" s="27">
+        <v>3.0920000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3980,10 +3732,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508A282A-4708-4CB2-A5C6-91738F08AEF6}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3991,7 +3743,7 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -4010,25 +3762,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -4037,21 +3789,21 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="29">
+        <v>97</v>
+      </c>
+      <c r="D3" s="26">
         <v>4.423</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="27">
         <v>4.5439999999999996</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="27">
         <v>4.5960000000000001</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="27">
         <v>4.7039999999999997</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="27">
         <v>4.8159999999999998</v>
       </c>
     </row>
@@ -4061,21 +3813,21 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="29">
+        <v>98</v>
+      </c>
+      <c r="D4" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>4.55</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -4085,21 +3837,21 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="29">
+        <v>99</v>
+      </c>
+      <c r="D5" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="27">
         <v>4.55</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -4109,21 +3861,21 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="29">
+        <v>100</v>
+      </c>
+      <c r="D6" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <v>4.55</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -4133,21 +3885,21 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="29">
+        <v>101</v>
+      </c>
+      <c r="D7" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <v>4.55</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -4157,21 +3909,21 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="29">
+        <v>102</v>
+      </c>
+      <c r="D8" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <v>4.55</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -4181,21 +3933,21 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="29">
+        <v>103</v>
+      </c>
+      <c r="D9" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="27">
         <v>4.55</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -4205,21 +3957,21 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="29">
+        <v>104</v>
+      </c>
+      <c r="D10" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="27">
         <v>4.55</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -4229,21 +3981,21 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="29">
+        <v>105</v>
+      </c>
+      <c r="D11" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="27">
         <v>4.55</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -4253,21 +4005,21 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="29">
+        <v>106</v>
+      </c>
+      <c r="D12" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="27">
         <v>4.55</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -4279,19 +4031,19 @@
       <c r="C13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="27">
         <v>4.55</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
@@ -4303,329 +4055,324 @@
       <c r="C14" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="26">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="27">
         <v>4.4779999999999998</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="27">
         <v>4.55</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="27">
         <v>4.6959999999999997</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="27">
         <v>4.8360000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="31">
-        <v>4.5</v>
-      </c>
-      <c r="E15" s="32">
-        <v>4.633</v>
-      </c>
-      <c r="F15" s="32">
-        <v>4.6970000000000001</v>
-      </c>
-      <c r="G15" s="32">
-        <v>4.83</v>
-      </c>
-      <c r="H15" s="32">
-        <v>4.9619999999999997</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="26">
+        <v>4.423</v>
+      </c>
+      <c r="E16" s="27">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="F16" s="27">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G16" s="27">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="H16" s="27">
+        <v>4.5439999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="29">
-        <v>4.423</v>
-      </c>
-      <c r="E17" s="30">
-        <v>4.5439999999999996</v>
-      </c>
-      <c r="F17" s="30">
-        <v>4.5960000000000001</v>
-      </c>
-      <c r="G17" s="30">
-        <v>4.7039999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="26">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="E17" s="27">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="F17" s="27">
+        <v>4.55</v>
+      </c>
+      <c r="G17" s="27">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H17" s="27">
+        <v>4.4779999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4"/>
+        <v>17</v>
+      </c>
       <c r="C18" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="29">
-        <v>4.3520000000000003</v>
-      </c>
-      <c r="E18" s="30">
-        <v>4.4779999999999998</v>
-      </c>
-      <c r="F18" s="30">
-        <v>4.55</v>
-      </c>
-      <c r="G18" s="30">
-        <v>4.6959999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="26">
+        <v>4.2809999999999997</v>
+      </c>
+      <c r="E18" s="27">
+        <v>4.4119999999999999</v>
+      </c>
+      <c r="F18" s="27">
+        <v>4.5039999999999996</v>
+      </c>
+      <c r="G18" s="27">
+        <v>4.6879999999999997</v>
+      </c>
+      <c r="H18" s="27">
+        <v>4.4119999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="29">
-        <v>4.2809999999999997</v>
-      </c>
-      <c r="E19" s="30">
-        <v>4.4119999999999999</v>
-      </c>
-      <c r="F19" s="30">
-        <v>4.5039999999999996</v>
-      </c>
-      <c r="G19" s="30">
-        <v>4.6879999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="26">
+        <v>4.21</v>
+      </c>
+      <c r="E19" s="27">
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="F19" s="27">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="G19" s="27">
+        <v>4.68</v>
+      </c>
+      <c r="H19" s="27">
+        <v>4.3460000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="29">
-        <v>4.21</v>
-      </c>
-      <c r="E20" s="30">
-        <v>4.3460000000000001</v>
-      </c>
-      <c r="F20" s="30">
-        <v>4.4580000000000002</v>
-      </c>
-      <c r="G20" s="30">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="26">
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="E20" s="27">
+        <v>4.28</v>
+      </c>
+      <c r="F20" s="27">
+        <v>4.4119999999999999</v>
+      </c>
+      <c r="G20" s="27">
+        <v>4.6719999999999997</v>
+      </c>
+      <c r="H20" s="27">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="29">
-        <v>4.1390000000000002</v>
-      </c>
-      <c r="E21" s="30">
-        <v>4.28</v>
-      </c>
-      <c r="F21" s="30">
-        <v>4.4119999999999999</v>
-      </c>
-      <c r="G21" s="30">
-        <v>4.6719999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="26">
+        <v>4.0679999999999996</v>
+      </c>
+      <c r="E21" s="27">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="F21" s="27">
+        <v>4.3659999999999997</v>
+      </c>
+      <c r="G21" s="27">
+        <v>4.6639999999999997</v>
+      </c>
+      <c r="H21" s="27">
+        <v>4.2140000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="29">
-        <v>4.0679999999999996</v>
-      </c>
-      <c r="E22" s="30">
-        <v>4.2140000000000004</v>
-      </c>
-      <c r="F22" s="30">
-        <v>4.3659999999999997</v>
-      </c>
-      <c r="G22" s="30">
-        <v>4.6639999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="26">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="E22" s="27">
+        <v>4.1479999999999997</v>
+      </c>
+      <c r="F22" s="27">
+        <v>4.32</v>
+      </c>
+      <c r="G22" s="27">
+        <v>4.6559999999999997</v>
+      </c>
+      <c r="H22" s="27">
+        <v>4.1479999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="29">
-        <v>3.9969999999999999</v>
-      </c>
-      <c r="E23" s="30">
-        <v>4.1479999999999997</v>
-      </c>
-      <c r="F23" s="30">
-        <v>4.32</v>
-      </c>
-      <c r="G23" s="30">
-        <v>4.6559999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="26">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="E23" s="27">
+        <v>4.0819999999999999</v>
+      </c>
+      <c r="F23" s="27">
+        <v>4.274</v>
+      </c>
+      <c r="G23" s="27">
+        <v>4.6479999999999997</v>
+      </c>
+      <c r="H23" s="27">
+        <v>4.0819999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="29">
-        <v>3.9260000000000002</v>
-      </c>
-      <c r="E24" s="30">
-        <v>4.0819999999999999</v>
-      </c>
-      <c r="F24" s="30">
-        <v>4.274</v>
-      </c>
-      <c r="G24" s="30">
-        <v>4.6479999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="26">
+        <v>3.855</v>
+      </c>
+      <c r="E24" s="27">
+        <v>4.016</v>
+      </c>
+      <c r="F24" s="27">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="G24" s="27">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="H24" s="27">
+        <v>4.016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="29">
-        <v>3.855</v>
-      </c>
-      <c r="E25" s="30">
-        <v>4.016</v>
-      </c>
-      <c r="F25" s="30">
-        <v>4.2279999999999998</v>
-      </c>
-      <c r="G25" s="30">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="26">
+        <v>3.7839999999999998</v>
+      </c>
+      <c r="E25" s="27">
+        <v>3.95</v>
+      </c>
+      <c r="F25" s="27">
+        <v>4.1820000000000004</v>
+      </c>
+      <c r="G25" s="27">
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="H25" s="27">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="29">
-        <v>3.7839999999999998</v>
-      </c>
-      <c r="E26" s="30">
-        <v>3.95</v>
-      </c>
-      <c r="F26" s="30">
-        <v>4.1820000000000004</v>
-      </c>
-      <c r="G26" s="30">
-        <v>4.6319999999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="D26" s="26">
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="E26" s="27">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="F26" s="27">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="G26" s="27">
+        <v>4.6239999999999997</v>
+      </c>
+      <c r="H26" s="27">
+        <v>3.8839999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="29">
-        <v>3.7130000000000001</v>
-      </c>
-      <c r="E27" s="30">
-        <v>3.8839999999999999</v>
-      </c>
-      <c r="F27" s="30">
-        <v>4.1360000000000001</v>
-      </c>
-      <c r="G27" s="30">
-        <v>4.6239999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="C28" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D27" s="26">
         <v>3.6419999999999999</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E27" s="27">
         <v>3.8180000000000001</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F27" s="27">
         <v>4.09</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G27" s="27">
         <v>4.6159999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="29">
-        <v>2.7900000000000098</v>
-      </c>
-      <c r="E29" s="30">
-        <v>3.0259999999999998</v>
-      </c>
-      <c r="F29" s="30">
-        <v>3.53799999999999</v>
-      </c>
-      <c r="G29" s="30">
-        <v>4.5199999999999996</v>
+      <c r="H27" s="27">
+        <v>3.8180000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4637,10 +4384,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08586E7E-EE67-49E1-9E9F-8F3E4F03BC07}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4648,10 +4395,10 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4662,244 +4409,197 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27">
+      <c r="C3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25">
         <v>0.247</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="25">
         <v>0.252</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I3" s="27">
-        <v>0.26600000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27">
+      <c r="C4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25">
         <v>0.28499999999999998</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="25">
         <v>0.28899999999999998</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="25">
         <v>0.27700000000000002</v>
       </c>
-      <c r="I4" s="27">
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27">
+      <c r="C5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25">
         <v>0.27300000000000002</v>
       </c>
-      <c r="I5" s="27">
-        <v>0.27100000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27">
+      <c r="C6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25">
         <v>0.27100000000000002</v>
       </c>
-      <c r="I6" s="27">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25">
+        <v>0.247</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.252</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27">
-        <v>0.247</v>
-      </c>
-      <c r="G10" s="27">
-        <v>0.252</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="G11" s="27">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="H11" s="27">
-        <v>0.27700000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27">
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25">
         <v>0.27100000000000002</v>
       </c>
     </row>
@@ -4912,10 +4612,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A9B019-BEF3-404C-BDA7-A7D1592E88A6}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4923,7 +4623,7 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -4942,25 +4642,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -5443,473 +5143,492 @@
         <v>4.8360000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="E23" s="23">
-        <v>4.633</v>
-      </c>
-      <c r="F23" s="23">
-        <v>4.6970000000000001</v>
-      </c>
-      <c r="G23" s="23">
-        <v>4.83</v>
-      </c>
-      <c r="H23" s="23">
-        <v>4.9619999999999997</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="16">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
+        <v>4.423</v>
+      </c>
+      <c r="E24" s="21">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="F24" s="21">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G24" s="21">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="H24" s="21">
+        <v>4.5439999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="16">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="17">
+        <v>2</v>
       </c>
       <c r="D25" s="20">
-        <v>4.423</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="E25" s="21">
-        <v>4.5439999999999996</v>
+        <v>4.4779999999999998</v>
       </c>
       <c r="F25" s="21">
-        <v>4.5960000000000001</v>
+        <v>4.55</v>
       </c>
       <c r="G25" s="21">
-        <v>4.7039999999999997</v>
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="H25" s="21">
+        <v>4.4779999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="17">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="C26" s="16">
+        <v>3</v>
       </c>
       <c r="D26" s="20">
-        <v>4.3520000000000003</v>
+        <v>4.2809999999999997</v>
       </c>
       <c r="E26" s="21">
-        <v>4.4779999999999998</v>
+        <v>4.4119999999999999</v>
       </c>
       <c r="F26" s="21">
-        <v>4.55</v>
+        <v>4.5039999999999996</v>
       </c>
       <c r="G26" s="21">
-        <v>4.6959999999999997</v>
+        <v>4.6879999999999997</v>
+      </c>
+      <c r="H26" s="21">
+        <v>4.4119999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="C27" s="16">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="17">
+        <v>4</v>
       </c>
       <c r="D27" s="20">
-        <v>4.2809999999999997</v>
+        <v>4.21</v>
       </c>
       <c r="E27" s="21">
-        <v>4.4119999999999999</v>
+        <v>4.3460000000000001</v>
       </c>
       <c r="F27" s="21">
-        <v>4.5039999999999996</v>
+        <v>4.4580000000000002</v>
       </c>
       <c r="G27" s="21">
-        <v>4.6879999999999997</v>
+        <v>4.68</v>
+      </c>
+      <c r="H27" s="21">
+        <v>4.3460000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="C28" s="17">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="C28" s="16">
+        <v>5</v>
       </c>
       <c r="D28" s="20">
-        <v>4.21</v>
+        <v>4.1390000000000002</v>
       </c>
       <c r="E28" s="21">
-        <v>4.3460000000000001</v>
+        <v>4.28</v>
       </c>
       <c r="F28" s="21">
-        <v>4.4580000000000002</v>
+        <v>4.4119999999999999</v>
       </c>
       <c r="G28" s="21">
-        <v>4.68</v>
+        <v>4.6719999999999997</v>
+      </c>
+      <c r="H28" s="21">
+        <v>4.28</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="C29" s="16">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="17">
+        <v>6</v>
       </c>
       <c r="D29" s="20">
-        <v>4.1390000000000002</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="E29" s="21">
-        <v>4.28</v>
+        <v>4.2140000000000004</v>
       </c>
       <c r="F29" s="21">
-        <v>4.4119999999999999</v>
+        <v>4.3659999999999997</v>
       </c>
       <c r="G29" s="21">
-        <v>4.6719999999999997</v>
+        <v>4.6639999999999997</v>
+      </c>
+      <c r="H29" s="21">
+        <v>4.2140000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="C30" s="17">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="C30" s="16">
+        <v>7</v>
       </c>
       <c r="D30" s="20">
-        <v>4.0679999999999996</v>
+        <v>3.9969999999999999</v>
       </c>
       <c r="E30" s="21">
-        <v>4.2140000000000004</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="F30" s="21">
-        <v>4.3659999999999997</v>
+        <v>4.32</v>
       </c>
       <c r="G30" s="21">
-        <v>4.6639999999999997</v>
+        <v>4.6559999999999997</v>
+      </c>
+      <c r="H30" s="21">
+        <v>4.1479999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="C31" s="16">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C31" s="17">
+        <v>8</v>
       </c>
       <c r="D31" s="20">
-        <v>3.9969999999999999</v>
+        <v>3.9260000000000002</v>
       </c>
       <c r="E31" s="21">
-        <v>4.1479999999999997</v>
+        <v>4.0819999999999999</v>
       </c>
       <c r="F31" s="21">
-        <v>4.32</v>
+        <v>4.274</v>
       </c>
       <c r="G31" s="21">
-        <v>4.6559999999999997</v>
+        <v>4.6479999999999997</v>
+      </c>
+      <c r="H31" s="21">
+        <v>4.0819999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="C32" s="17">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="C32" s="16">
+        <v>9</v>
       </c>
       <c r="D32" s="20">
-        <v>3.9260000000000002</v>
+        <v>3.855</v>
       </c>
       <c r="E32" s="21">
-        <v>4.0819999999999999</v>
+        <v>4.016</v>
       </c>
       <c r="F32" s="21">
-        <v>4.274</v>
+        <v>4.2279999999999998</v>
       </c>
       <c r="G32" s="21">
-        <v>4.6479999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="H32" s="21">
+        <v>4.016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="C33" s="16">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="C33" s="17">
+        <v>10</v>
       </c>
       <c r="D33" s="20">
-        <v>3.855</v>
+        <v>3.7839999999999998</v>
       </c>
       <c r="E33" s="21">
-        <v>4.016</v>
+        <v>3.95</v>
       </c>
       <c r="F33" s="21">
-        <v>4.2279999999999998</v>
+        <v>4.1820000000000004</v>
       </c>
       <c r="G33" s="21">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="H33" s="21">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="C34" s="17">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="C34" s="16">
+        <v>11</v>
       </c>
       <c r="D34" s="20">
-        <v>3.7839999999999998</v>
+        <v>3.7130000000000001</v>
       </c>
       <c r="E34" s="21">
-        <v>3.95</v>
+        <v>3.8839999999999999</v>
       </c>
       <c r="F34" s="21">
-        <v>4.1820000000000004</v>
+        <v>4.1360000000000001</v>
       </c>
       <c r="G34" s="21">
-        <v>4.6319999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>4.6239999999999997</v>
+      </c>
+      <c r="H34" s="21">
+        <v>3.8839999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="C35" s="16">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="C35" s="17">
+        <v>12</v>
       </c>
       <c r="D35" s="20">
-        <v>3.7130000000000001</v>
+        <v>3.6419999999999999</v>
       </c>
       <c r="E35" s="21">
-        <v>3.8839999999999999</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="F35" s="21">
-        <v>4.1360000000000001</v>
+        <v>4.09</v>
       </c>
       <c r="G35" s="21">
-        <v>4.6239999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>4.6159999999999997</v>
+      </c>
+      <c r="H35" s="21">
+        <v>3.8180000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="C36" s="17">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C36" s="16">
+        <v>13</v>
       </c>
       <c r="D36" s="20">
-        <v>3.6419999999999999</v>
+        <v>3.5710000000000002</v>
       </c>
       <c r="E36" s="21">
-        <v>3.8180000000000001</v>
+        <v>3.7519999999999998</v>
       </c>
       <c r="F36" s="21">
-        <v>4.09</v>
+        <v>4.0439999999999996</v>
       </c>
       <c r="G36" s="21">
-        <v>4.6159999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="H36" s="21">
+        <v>3.7519999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="20">
-        <v>3.5710000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="E37" s="21">
-        <v>3.7519999999999998</v>
+        <v>3.6859999999999999</v>
       </c>
       <c r="F37" s="21">
-        <v>4.0439999999999996</v>
+        <v>3.9980000000000002</v>
       </c>
       <c r="G37" s="21">
-        <v>4.6079999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H37" s="21">
+        <v>3.6859999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="C38" s="16">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="C38" s="17">
+        <v>15</v>
       </c>
       <c r="D38" s="20">
-        <v>3.5</v>
+        <v>3.4289999999999998</v>
       </c>
       <c r="E38" s="21">
-        <v>3.6859999999999999</v>
+        <v>3.62</v>
       </c>
       <c r="F38" s="21">
-        <v>3.9980000000000002</v>
+        <v>3.952</v>
       </c>
       <c r="G38" s="21">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="H38" s="21">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="C39" s="17">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C39" s="16">
+        <v>16</v>
       </c>
       <c r="D39" s="20">
-        <v>3.4289999999999998</v>
+        <v>3.3580000000000001</v>
       </c>
       <c r="E39" s="21">
-        <v>3.62</v>
+        <v>3.5539999999999998</v>
       </c>
       <c r="F39" s="21">
-        <v>3.952</v>
+        <v>3.9060000000000001</v>
       </c>
       <c r="G39" s="21">
-        <v>4.5919999999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>4.5839999999999996</v>
+      </c>
+      <c r="H39" s="21">
+        <v>3.5539999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="C40" s="16">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="C40" s="17">
+        <v>17</v>
       </c>
       <c r="D40" s="20">
-        <v>3.3580000000000001</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="E40" s="21">
-        <v>3.5539999999999998</v>
+        <v>3.488</v>
       </c>
       <c r="F40" s="21">
-        <v>3.9060000000000001</v>
+        <v>3.86</v>
       </c>
       <c r="G40" s="21">
-        <v>4.5839999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>4.5759999999999996</v>
+      </c>
+      <c r="H40" s="21">
+        <v>3.488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="C41" s="17">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="C41" s="16">
+        <v>18</v>
       </c>
       <c r="D41" s="20">
-        <v>3.2869999999999999</v>
+        <v>3.2160000000000002</v>
       </c>
       <c r="E41" s="21">
-        <v>3.488</v>
+        <v>3.4220000000000002</v>
       </c>
       <c r="F41" s="21">
-        <v>3.86</v>
+        <v>3.8140000000000001</v>
       </c>
       <c r="G41" s="21">
-        <v>4.5759999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="H41" s="21">
+        <v>3.4220000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" s="20">
-        <v>3.2160000000000002</v>
+        <v>3.145</v>
       </c>
       <c r="E42" s="21">
-        <v>3.4220000000000002</v>
+        <v>3.3559999999999999</v>
       </c>
       <c r="F42" s="21">
-        <v>3.8140000000000001</v>
+        <v>3.7679999999999998</v>
       </c>
       <c r="G42" s="21">
-        <v>4.5679999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H42" s="21">
+        <v>3.3559999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="C43" s="16">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="C43" s="17">
+        <v>20</v>
       </c>
       <c r="D43" s="20">
-        <v>3.145</v>
+        <v>3.0740000000000101</v>
       </c>
       <c r="E43" s="21">
-        <v>3.3559999999999999</v>
+        <v>3.29</v>
       </c>
       <c r="F43" s="21">
-        <v>3.7679999999999998</v>
+        <v>3.722</v>
       </c>
       <c r="G43" s="21">
-        <v>4.5599999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="C44" s="17">
-        <v>20</v>
-      </c>
-      <c r="D44" s="20">
-        <v>3.0740000000000101</v>
-      </c>
-      <c r="E44" s="21">
+        <v>4.5519999999999996</v>
+      </c>
+      <c r="H43" s="21">
         <v>3.29</v>
-      </c>
-      <c r="F44" s="21">
-        <v>3.722</v>
-      </c>
-      <c r="G44" s="21">
-        <v>4.5519999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="20">
-        <v>3.0030000000000099</v>
-      </c>
-      <c r="E45" s="21">
-        <v>3.2240000000000002</v>
-      </c>
-      <c r="F45" s="21">
-        <v>3.6759999999999899</v>
-      </c>
-      <c r="G45" s="21">
-        <v>4.5439999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -6133,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>24</v>
@@ -6281,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -6431,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -6500,7 +6219,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
